--- a/Nada.UI/TestDistrictUpdate.xlsx
+++ b/Nada.UI/TestDistrictUpdate.xlsx
@@ -25,9 +25,6 @@
     <t>Year of population projections</t>
   </si>
   <si>
-    <t>Population growth rate</t>
-  </si>
-  <si>
     <t>Total population</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Location:#</t>
+  </si>
+  <si>
+    <t>Population growth rate (%)</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -448,37 +448,37 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -580,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2000</v>

--- a/Nada.UI/TestDistrictUpdate.xlsx
+++ b/Nada.UI/TestDistrictUpdate.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,28 +498,28 @@
         <v>99</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>20200100</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>20200100</v>
       </c>
       <c r="H2">
-        <v>99</v>
+        <v>20200100</v>
       </c>
       <c r="I2">
-        <v>99</v>
+        <v>20200100</v>
       </c>
       <c r="J2">
-        <v>99</v>
+        <v>20200100</v>
       </c>
       <c r="K2">
-        <v>99</v>
+        <v>20200100</v>
       </c>
       <c r="L2">
-        <v>99</v>
+        <v>20200100</v>
       </c>
       <c r="M2">
-        <v>99</v>
+        <v>20200100</v>
       </c>
       <c r="N2">
         <v>99</v>
@@ -545,28 +545,28 @@
         <v>99</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>20200200</v>
       </c>
       <c r="G3">
-        <v>99</v>
+        <v>20200200</v>
       </c>
       <c r="H3">
-        <v>99</v>
+        <v>20200200</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>20200200</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>20200200</v>
       </c>
       <c r="K3">
-        <v>99</v>
+        <v>20200200</v>
       </c>
       <c r="L3">
-        <v>99</v>
+        <v>20200200</v>
       </c>
       <c r="M3">
-        <v>99</v>
+        <v>20200200</v>
       </c>
       <c r="N3">
         <v>99</v>
@@ -592,28 +592,28 @@
         <v>99</v>
       </c>
       <c r="F4">
-        <v>99</v>
+        <v>20200300</v>
       </c>
       <c r="G4">
-        <v>99</v>
+        <v>20200300</v>
       </c>
       <c r="H4">
-        <v>99</v>
+        <v>20200300</v>
       </c>
       <c r="I4">
-        <v>99</v>
+        <v>20200300</v>
       </c>
       <c r="J4">
-        <v>99</v>
+        <v>20200300</v>
       </c>
       <c r="K4">
-        <v>99</v>
+        <v>20200300</v>
       </c>
       <c r="L4">
-        <v>99</v>
+        <v>20200300</v>
       </c>
       <c r="M4">
-        <v>99</v>
+        <v>20200300</v>
       </c>
       <c r="N4">
         <v>99</v>
@@ -639,28 +639,28 @@
         <v>99</v>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>20200400</v>
       </c>
       <c r="G5">
-        <v>99</v>
+        <v>20200400</v>
       </c>
       <c r="H5">
-        <v>99</v>
+        <v>20200400</v>
       </c>
       <c r="I5">
-        <v>99</v>
+        <v>20200400</v>
       </c>
       <c r="J5">
-        <v>99</v>
+        <v>20200400</v>
       </c>
       <c r="K5">
-        <v>99</v>
+        <v>20200400</v>
       </c>
       <c r="L5">
-        <v>99</v>
+        <v>20200400</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>20200400</v>
       </c>
       <c r="N5">
         <v>99</v>

--- a/Nada.UI/TestDistrictUpdate.xlsx
+++ b/Nada.UI/TestDistrictUpdate.xlsx
@@ -19,24 +19,15 @@
     <t>District</t>
   </si>
   <si>
-    <t>Year of census</t>
-  </si>
-  <si>
     <t>Year of population projections</t>
   </si>
   <si>
-    <t>Total population</t>
-  </si>
-  <si>
     <t>0-6 month population</t>
   </si>
   <si>
     <t>PSAC population</t>
   </si>
   <si>
-    <t>SAC population</t>
-  </si>
-  <si>
     <t>&lt;5 year old population</t>
   </si>
   <si>
@@ -67,10 +58,19 @@
     <t>d4</t>
   </si>
   <si>
-    <t>Location:#</t>
-  </si>
-  <si>
-    <t>Population growth rate (%)</t>
+    <t>* Year of census</t>
+  </si>
+  <si>
+    <t>* Population growth rate (%)</t>
+  </si>
+  <si>
+    <t>* Total population</t>
+  </si>
+  <si>
+    <t>* SAC population</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,49 +436,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -580,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2000</v>

--- a/Nada.UI/TestDistrictUpdate.xlsx
+++ b/Nada.UI/TestDistrictUpdate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="765" yWindow="945" windowWidth="27795" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>District</t>
   </si>
@@ -70,7 +70,10 @@
     <t>* SAC population</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>ID#</t>
+  </si>
+  <si>
+    <t>Location#</t>
   </si>
 </sst>
 </file>
@@ -409,96 +412,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>2000</v>
-      </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>2000</v>
       </c>
       <c r="F2">
-        <v>20200100</v>
+        <v>99</v>
       </c>
       <c r="G2">
         <v>20200100</v>
@@ -522,30 +528,33 @@
         <v>20200100</v>
       </c>
       <c r="N2">
-        <v>99</v>
+        <v>20200100</v>
       </c>
       <c r="O2">
         <v>99</v>
       </c>
+      <c r="P2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3">
-        <v>99</v>
+        <v>2000</v>
       </c>
       <c r="F3">
-        <v>20200200</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>20200200</v>
@@ -569,30 +578,33 @@
         <v>20200200</v>
       </c>
       <c r="N3">
-        <v>99</v>
+        <v>20200200</v>
       </c>
       <c r="O3">
         <v>99</v>
       </c>
+      <c r="P3">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>99</v>
+        <v>2000</v>
       </c>
       <c r="F4">
-        <v>20200300</v>
+        <v>99</v>
       </c>
       <c r="G4">
         <v>20200300</v>
@@ -616,30 +628,33 @@
         <v>20200300</v>
       </c>
       <c r="N4">
-        <v>99</v>
+        <v>20200300</v>
       </c>
       <c r="O4">
         <v>99</v>
       </c>
+      <c r="P4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>2000</v>
       </c>
       <c r="F5">
-        <v>20200400</v>
+        <v>99</v>
       </c>
       <c r="G5">
         <v>20200400</v>
@@ -663,9 +678,12 @@
         <v>20200400</v>
       </c>
       <c r="N5">
-        <v>99</v>
+        <v>20200400</v>
       </c>
       <c r="O5">
+        <v>99</v>
+      </c>
+      <c r="P5">
         <v>99</v>
       </c>
     </row>
